--- a/manual/dbDesign/後台統計資料表 .xlsx
+++ b/manual/dbDesign/後台統計資料表 .xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="熱門老師" sheetId="5" r:id="rId1"/>
-    <sheet name="熱門課程" sheetId="6" r:id="rId2"/>
-    <sheet name="學員分析" sheetId="7" r:id="rId3"/>
+    <sheet name="年度熱門老師" sheetId="5" r:id="rId1"/>
+    <sheet name="月熱門老師 " sheetId="8" r:id="rId2"/>
+    <sheet name="年度熱門課程" sheetId="6" r:id="rId3"/>
+    <sheet name="月熱門課程" sheetId="9" r:id="rId4"/>
+    <sheet name="學員分析" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,15 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>熱門課程(nvarchar)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熱門老師(nvarchar)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>月選課總數(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +50,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最多職業(nvarchar)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程名稱(nvarchar, FK PK)</t>
+    <t>老師ID(int, FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程ID(int, FK PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程ID(int, FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID(int, PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID(int, PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多職業(nvarchar 50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,29 +417,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -424,28 +453,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -456,28 +489,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
